--- a/data/landings/cdfw/public/merged/data/final_excel/CDFW_1916_2020_n_fishers_by_area_of_residence.xlsx
+++ b/data/landings/cdfw/public/merged/data/final_excel/CDFW_1916_2020_n_fishers_by_area_of_residence.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/merged/data/final_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0D40DC7F-2873-3C46-92CC-E3EF78EEB311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7273B29F-9D45-0349-A936-F615D94E07D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" activeTab="1"/>
+    <workbookView xWindow="4260" yWindow="500" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -497,9 +497,6 @@
     <t>1999-00</t>
   </si>
   <si>
-    <t>CDFW 2001</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -630,12 +627,15 @@
   </si>
   <si>
     <t>Number of resident licensed commercial fishers</t>
+  </si>
+  <si>
+    <t>CDFW 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1482,11 +1482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J438"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14849,13 +14849,13 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
+        <v>202</v>
+      </c>
+      <c r="B418" t="s">
         <v>158</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
         <v>159</v>
-      </c>
-      <c r="C418" t="s">
-        <v>160</v>
       </c>
       <c r="D418">
         <v>2000</v>
@@ -14881,13 +14881,13 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
+        <v>202</v>
+      </c>
+      <c r="B419" t="s">
         <v>158</v>
       </c>
-      <c r="B419" t="s">
-        <v>159</v>
-      </c>
       <c r="C419" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D419">
         <v>2001</v>
@@ -14913,13 +14913,13 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
+        <v>202</v>
+      </c>
+      <c r="B420" t="s">
         <v>158</v>
       </c>
-      <c r="B420" t="s">
-        <v>159</v>
-      </c>
       <c r="C420" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D420">
         <v>2002</v>
@@ -14945,13 +14945,13 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
+        <v>202</v>
+      </c>
+      <c r="B421" t="s">
         <v>158</v>
       </c>
-      <c r="B421" t="s">
-        <v>159</v>
-      </c>
       <c r="C421" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D421">
         <v>2003</v>
@@ -14977,13 +14977,13 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
+        <v>202</v>
+      </c>
+      <c r="B422" t="s">
         <v>158</v>
       </c>
-      <c r="B422" t="s">
-        <v>159</v>
-      </c>
       <c r="C422" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D422">
         <v>2004</v>
@@ -15009,13 +15009,13 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
+        <v>202</v>
+      </c>
+      <c r="B423" t="s">
         <v>158</v>
       </c>
-      <c r="B423" t="s">
-        <v>159</v>
-      </c>
       <c r="C423" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D423">
         <v>2005</v>
@@ -15041,13 +15041,13 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
+        <v>202</v>
+      </c>
+      <c r="B424" t="s">
         <v>158</v>
       </c>
-      <c r="B424" t="s">
-        <v>159</v>
-      </c>
       <c r="C424" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D424">
         <v>2006</v>
@@ -15073,13 +15073,13 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
+        <v>202</v>
+      </c>
+      <c r="B425" t="s">
         <v>158</v>
       </c>
-      <c r="B425" t="s">
-        <v>159</v>
-      </c>
       <c r="C425" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D425">
         <v>2007</v>
@@ -15105,13 +15105,13 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
+        <v>202</v>
+      </c>
+      <c r="B426" t="s">
         <v>158</v>
       </c>
-      <c r="B426" t="s">
-        <v>159</v>
-      </c>
       <c r="C426" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D426">
         <v>2008</v>
@@ -15137,13 +15137,13 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
+        <v>202</v>
+      </c>
+      <c r="B427" t="s">
         <v>158</v>
       </c>
-      <c r="B427" t="s">
-        <v>159</v>
-      </c>
       <c r="C427" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D427">
         <v>2009</v>
@@ -15169,13 +15169,13 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
+        <v>202</v>
+      </c>
+      <c r="B428" t="s">
         <v>158</v>
       </c>
-      <c r="B428" t="s">
-        <v>159</v>
-      </c>
       <c r="C428" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D428">
         <v>2010</v>
@@ -15201,13 +15201,13 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
+        <v>202</v>
+      </c>
+      <c r="B429" t="s">
         <v>158</v>
       </c>
-      <c r="B429" t="s">
-        <v>159</v>
-      </c>
       <c r="C429" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D429">
         <v>2011</v>
@@ -15233,13 +15233,13 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
+        <v>202</v>
+      </c>
+      <c r="B430" t="s">
         <v>158</v>
       </c>
-      <c r="B430" t="s">
-        <v>159</v>
-      </c>
       <c r="C430" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D430">
         <v>2012</v>
@@ -15265,13 +15265,13 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
+        <v>202</v>
+      </c>
+      <c r="B431" t="s">
         <v>158</v>
       </c>
-      <c r="B431" t="s">
-        <v>159</v>
-      </c>
       <c r="C431" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D431">
         <v>2013</v>
@@ -15297,13 +15297,13 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
+        <v>202</v>
+      </c>
+      <c r="B432" t="s">
         <v>158</v>
       </c>
-      <c r="B432" t="s">
-        <v>159</v>
-      </c>
       <c r="C432" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D432">
         <v>2014</v>
@@ -15329,13 +15329,13 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
+        <v>202</v>
+      </c>
+      <c r="B433" t="s">
         <v>158</v>
       </c>
-      <c r="B433" t="s">
-        <v>159</v>
-      </c>
       <c r="C433" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D433">
         <v>2015</v>
@@ -15361,13 +15361,13 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
+        <v>202</v>
+      </c>
+      <c r="B434" t="s">
         <v>158</v>
       </c>
-      <c r="B434" t="s">
-        <v>159</v>
-      </c>
       <c r="C434" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D434">
         <v>2016</v>
@@ -15393,13 +15393,13 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
+        <v>202</v>
+      </c>
+      <c r="B435" t="s">
         <v>158</v>
       </c>
-      <c r="B435" t="s">
-        <v>159</v>
-      </c>
       <c r="C435" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D435">
         <v>2017</v>
@@ -15425,13 +15425,13 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
+        <v>202</v>
+      </c>
+      <c r="B436" t="s">
         <v>158</v>
       </c>
-      <c r="B436" t="s">
-        <v>159</v>
-      </c>
       <c r="C436" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D436">
         <v>2018</v>
@@ -15457,13 +15457,13 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
+        <v>202</v>
+      </c>
+      <c r="B437" t="s">
         <v>158</v>
       </c>
-      <c r="B437" t="s">
-        <v>159</v>
-      </c>
       <c r="C437" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D437">
         <v>2019</v>
@@ -15489,13 +15489,13 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
+        <v>202</v>
+      </c>
+      <c r="B438" t="s">
         <v>158</v>
       </c>
-      <c r="B438" t="s">
-        <v>159</v>
-      </c>
       <c r="C438" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D438">
         <v>2020</v>
@@ -15525,10 +15525,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -15541,53 +15541,53 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
         <v>184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
         <v>186</v>
-      </c>
-      <c r="B3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
         <v>188</v>
-      </c>
-      <c r="B4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
         <v>190</v>
-      </c>
-      <c r="B5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
         <v>192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -15595,39 +15595,39 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" t="s">
         <v>195</v>
-      </c>
-      <c r="B8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
         <v>197</v>
-      </c>
-      <c r="B9" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
         <v>199</v>
-      </c>
-      <c r="B10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
         <v>201</v>
-      </c>
-      <c r="B11" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
